--- a/app/assets/files/NAPI 2013 Recommendation Form.xlsx
+++ b/app/assets/files/NAPI 2013 Recommendation Form.xlsx
@@ -33,9 +33,6 @@
     <t>1. What are the qualities that the applicant possess that could help him/her in doing research activities?</t>
   </si>
   <si>
-    <t>(Rate from 1 to 5 with five being the most willing)</t>
-  </si>
-  <si>
     <t>4.  Would you recommend the applicant for this internship program?</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>With some doubt</t>
   </si>
   <si>
-    <t>(Please check the appropriate choice)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Reminder: Kindly email the completed recommendation form in </t>
     </r>
@@ -143,7 +137,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>July 19, 2013 11:59 PM (Phillipine Standard Time )</t>
+      <t>July 19, 2013 23:59 GMT+8</t>
     </r>
     <r>
       <rPr>
@@ -154,13 +148,19 @@
       </rPr>
       <t>. Please follow the file naming format: [Surname]-Recommendation_NAPI2013.pdf Ex: DelaCruz-Recommendation_NAPI2013.pdf</t>
     </r>
+  </si>
+  <si>
+    <t>(Rate from 1 to 5 with five being the most suitable by highlighting your choice)</t>
+  </si>
+  <si>
+    <t>(Please affix an "X" mark on your appropriate choice)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -198,11 +198,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -646,7 +641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -659,17 +654,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -681,22 +675,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -711,9 +773,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -723,77 +782,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1126,185 +1122,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:J6"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
     <col min="2" max="2" width="1.1640625" customWidth="1"/>
     <col min="3" max="3" width="6.83203125" customWidth="1"/>
+    <col min="4" max="5" width="9.1640625" customWidth="1"/>
     <col min="6" max="6" width="6.83203125" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" customWidth="1"/>
     <col min="8" max="8" width="6.33203125" customWidth="1"/>
     <col min="9" max="9" width="6.83203125" customWidth="1"/>
     <col min="10" max="10" width="27.33203125" customWidth="1"/>
+    <col min="11" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-    </row>
-    <row r="2" spans="1:10" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="14"/>
-    </row>
-    <row r="3" spans="1:10" s="15" customFormat="1" ht="40" customHeight="1">
-      <c r="A3" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
+      <c r="A1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" s="14" customFormat="1" ht="40" customHeight="1">
+      <c r="A3" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="1:10" ht="12">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="13">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A6" s="53"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="36"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="28"/>
     </row>
     <row r="7" spans="1:10" ht="12">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="13">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="25"/>
     </row>
     <row r="9" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A9" s="55"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="24"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="25"/>
     </row>
     <row r="10" spans="1:10" ht="12">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="13">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="41"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="35"/>
     </row>
     <row r="12" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>1</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="44"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="38"/>
     </row>
     <row r="13" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>2</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="36"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="28"/>
     </row>
     <row r="14" spans="1:10" ht="13">
-      <c r="A14" s="13"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="6"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1316,94 +1316,94 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="30" customHeight="1">
-      <c r="A15" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
+      <c r="A15" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
     </row>
     <row r="16" spans="1:10" ht="7.5" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" ht="23" customHeight="1">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="30"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="44"/>
     </row>
     <row r="18" spans="1:10" ht="180" customHeight="1">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="27"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="48"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="1:10" s="16" customFormat="1" ht="23" customHeight="1">
-      <c r="A20" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="30"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" s="15" customFormat="1" ht="23" customHeight="1">
+      <c r="A20" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="44"/>
     </row>
     <row r="21" spans="1:10" ht="180" customHeight="1">
-      <c r="A21" s="25"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="27"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="48"/>
     </row>
     <row r="22" spans="1:10" ht="23" customHeight="1">
       <c r="A22" s="3"/>
@@ -1418,22 +1418,22 @@
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" ht="13">
-      <c r="A23" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="33"/>
+      <c r="A23" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="53"/>
     </row>
     <row r="24" spans="1:10" ht="13">
-      <c r="A24" s="8" t="s">
-        <v>4</v>
+      <c r="A24" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1443,14 +1443,14 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="12"/>
+      <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:10" ht="3.75" customHeight="1">
-      <c r="A25" s="11"/>
+      <c r="A25" s="10"/>
       <c r="J25" s="7"/>
     </row>
     <row r="26" spans="1:10" ht="13">
-      <c r="A26" s="11"/>
+      <c r="A26" s="10"/>
       <c r="C26" s="5">
         <v>1</v>
       </c>
@@ -1469,7 +1469,7 @@
       <c r="J26" s="7"/>
     </row>
     <row r="27" spans="1:10" ht="3.75" customHeight="1">
-      <c r="A27" s="13"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1481,34 +1481,34 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="10.5" customHeight="1">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:10" ht="13">
-      <c r="A29" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="36"/>
+      <c r="A29" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="28"/>
     </row>
     <row r="30" spans="1:10" ht="13">
-      <c r="A30" s="21" t="s">
-        <v>14</v>
+      <c r="A30" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1518,31 +1518,31 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="12"/>
+      <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:10" ht="3.75" customHeight="1">
-      <c r="A31" s="11"/>
+      <c r="A31" s="10"/>
       <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:10" ht="13">
-      <c r="A32" s="11"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="38"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="37" t="s">
+      <c r="A32" s="10"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="56"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="56"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="38"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="33" spans="1:10" ht="3.75" customHeight="1">
-      <c r="A33" s="13"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -1554,56 +1554,71 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="10.5" customHeight="1">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
     </row>
     <row r="35" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A35" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="24"/>
+      <c r="A35" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="25"/>
     </row>
     <row r="36" spans="1:10" ht="190" customHeight="1">
-      <c r="A36" s="25"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="27"/>
-    </row>
+      <c r="A36" s="46"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="48"/>
+    </row>
+    <row r="37" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="38" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="39" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="40" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="41" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="42" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="43" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="44" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A17:J17"/>
     <mergeCell ref="A35:J35"/>
     <mergeCell ref="A36:J36"/>
     <mergeCell ref="A18:J18"/>
@@ -1613,8 +1628,19 @@
     <mergeCell ref="A29:J29"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A3:J3"/>
   </mergeCells>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/app/assets/files/NAPI 2013 Recommendation Form.xlsx
+++ b/app/assets/files/NAPI 2013 Recommendation Form.xlsx
@@ -33,6 +33,9 @@
     <t>1. What are the qualities that the applicant possess that could help him/her in doing research activities?</t>
   </si>
   <si>
+    <t>(Rate from 1 to 5 with five being the most willing)</t>
+  </si>
+  <si>
     <t>4.  Would you recommend the applicant for this internship program?</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t>With some doubt</t>
   </si>
   <si>
+    <t>(Please check the appropriate choice)</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Reminder: Kindly email the completed recommendation form in </t>
     </r>
@@ -137,7 +143,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>July 19, 2013 23:59 GMT+8</t>
+      <t>July 19, 2013 11:59 PM (Phillipine Standard Time )</t>
     </r>
     <r>
       <rPr>
@@ -148,19 +154,13 @@
       </rPr>
       <t>. Please follow the file naming format: [Surname]-Recommendation_NAPI2013.pdf Ex: DelaCruz-Recommendation_NAPI2013.pdf</t>
     </r>
-  </si>
-  <si>
-    <t>(Rate from 1 to 5 with five being the most suitable by highlighting your choice)</t>
-  </si>
-  <si>
-    <t>(Please affix an "X" mark on your appropriate choice)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -198,6 +198,11 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -641,7 +646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -654,16 +659,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -675,15 +681,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -692,104 +780,20 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1122,189 +1126,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:J8"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" customWidth="1"/>
     <col min="2" max="2" width="1.1640625" customWidth="1"/>
     <col min="3" max="3" width="6.83203125" customWidth="1"/>
-    <col min="4" max="5" width="9.1640625" customWidth="1"/>
     <col min="6" max="6" width="6.83203125" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" customWidth="1"/>
     <col min="8" max="8" width="6.33203125" customWidth="1"/>
     <col min="9" max="9" width="6.83203125" customWidth="1"/>
     <col min="10" max="10" width="27.33203125" customWidth="1"/>
-    <col min="11" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="13"/>
-    </row>
-    <row r="3" spans="1:10" s="14" customFormat="1" ht="40" customHeight="1">
-      <c r="A3" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
+      <c r="A1" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+    </row>
+    <row r="2" spans="1:10" s="15" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="14"/>
+    </row>
+    <row r="3" spans="1:10" s="15" customFormat="1" ht="40" customHeight="1">
+      <c r="A3" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
     </row>
     <row r="4" spans="1:10" ht="12">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:10" ht="13">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="25"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="24"/>
     </row>
     <row r="6" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="28"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="36"/>
     </row>
     <row r="7" spans="1:10" ht="12">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" ht="13">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="25"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
     </row>
     <row r="9" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A9" s="30"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="25"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="24"/>
     </row>
     <row r="10" spans="1:10" ht="12">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" ht="13">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="35"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="41"/>
     </row>
     <row r="12" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A12" s="10">
+      <c r="A12" s="11">
         <v>1</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="38"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="44"/>
     </row>
     <row r="13" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A13" s="10">
+      <c r="A13" s="11">
         <v>2</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="28"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="36"/>
     </row>
     <row r="14" spans="1:10" ht="13">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="6"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1316,94 +1316,94 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="30" customHeight="1">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+    </row>
+    <row r="16" spans="1:10" ht="7.5" customHeight="1">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" ht="23" customHeight="1">
+      <c r="A17" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="30"/>
+    </row>
+    <row r="18" spans="1:10" ht="180" customHeight="1">
+      <c r="A18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="27"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="1:10" s="16" customFormat="1" ht="23" customHeight="1">
+      <c r="A20" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-    </row>
-    <row r="16" spans="1:10" ht="7.5" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="1:10" ht="23" customHeight="1">
-      <c r="A17" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="44"/>
-    </row>
-    <row r="18" spans="1:10" ht="180" customHeight="1">
-      <c r="A18" s="46"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
-    </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:10" s="15" customFormat="1" ht="23" customHeight="1">
-      <c r="A20" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="44"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="30"/>
     </row>
     <row r="21" spans="1:10" ht="180" customHeight="1">
-      <c r="A21" s="46"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="48"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="27"/>
     </row>
     <row r="22" spans="1:10" ht="23" customHeight="1">
       <c r="A22" s="3"/>
@@ -1418,22 +1418,22 @@
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" ht="13">
-      <c r="A23" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="53"/>
+      <c r="A23" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="33"/>
     </row>
     <row r="24" spans="1:10" ht="13">
-      <c r="A24" s="18" t="s">
-        <v>14</v>
+      <c r="A24" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1443,14 +1443,14 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="11"/>
+      <c r="J24" s="12"/>
     </row>
     <row r="25" spans="1:10" ht="3.75" customHeight="1">
-      <c r="A25" s="10"/>
+      <c r="A25" s="11"/>
       <c r="J25" s="7"/>
     </row>
     <row r="26" spans="1:10" ht="13">
-      <c r="A26" s="10"/>
+      <c r="A26" s="11"/>
       <c r="C26" s="5">
         <v>1</v>
       </c>
@@ -1469,7 +1469,7 @@
       <c r="J26" s="7"/>
     </row>
     <row r="27" spans="1:10" ht="3.75" customHeight="1">
-      <c r="A27" s="12"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1481,34 +1481,34 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="10.5" customHeight="1">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:10" ht="13">
-      <c r="A29" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="28"/>
+      <c r="A29" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="36"/>
     </row>
     <row r="30" spans="1:10" ht="13">
-      <c r="A30" s="18" t="s">
-        <v>15</v>
+      <c r="A30" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1518,31 +1518,31 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="11"/>
+      <c r="J30" s="12"/>
     </row>
     <row r="31" spans="1:10" ht="3.75" customHeight="1">
-      <c r="A31" s="10"/>
+      <c r="A31" s="11"/>
       <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:10" ht="13">
-      <c r="A32" s="10"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="55" t="s">
+      <c r="A32" s="11"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="38"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="38"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="56"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="56"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="17" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="33" spans="1:10" ht="3.75" customHeight="1">
-      <c r="A33" s="12"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -1554,71 +1554,56 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="10.5" customHeight="1">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
     </row>
     <row r="35" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A35" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="25"/>
+      <c r="A35" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="24"/>
     </row>
     <row r="36" spans="1:10" ht="190" customHeight="1">
-      <c r="A36" s="46"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="48"/>
-    </row>
-    <row r="37" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="38" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="39" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="40" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="41" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="42" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="43" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="44" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="45" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="46" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="47" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="48" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="27"/>
+    </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A17:J17"/>
     <mergeCell ref="A35:J35"/>
     <mergeCell ref="A36:J36"/>
     <mergeCell ref="A18:J18"/>
@@ -1628,19 +1613,8 @@
     <mergeCell ref="A29:J29"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A3:J3"/>
   </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/app/assets/files/NAPI 2013 Recommendation Form.xlsx
+++ b/app/assets/files/NAPI 2013 Recommendation Form.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="-19380" windowWidth="25360" windowHeight="14200" tabRatio="500"/>
+    <workbookView xWindow="1740" yWindow="-19380" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="RecommendationForm" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <t>1. What are the qualities that the applicant possess that could help him/her in doing research activities?</t>
   </si>
   <si>
-    <t>(Rate from 1 to 5 with five being the most willing)</t>
-  </si>
-  <si>
     <t>4.  Would you recommend the applicant for this internship program?</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>With some doubt</t>
   </si>
   <si>
-    <t>(Please check the appropriate choice)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Reminder: Kindly email the completed recommendation form in </t>
     </r>
@@ -143,7 +137,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>July 19, 2013 11:59 PM (Phillipine Standard Time )</t>
+      <t>July 19, 2013 23:59 GMT+8</t>
     </r>
     <r>
       <rPr>
@@ -154,13 +148,19 @@
       </rPr>
       <t>. Please follow the file naming format: [Surname]-Recommendation_NAPI2013.pdf Ex: DelaCruz-Recommendation_NAPI2013.pdf</t>
     </r>
+  </si>
+  <si>
+    <t>(Rate from 1 to 5 with five being the most suitable by highlighting your choice)</t>
+  </si>
+  <si>
+    <t>(Please affix an "X" mark on your appropriate choice)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -198,11 +198,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -646,7 +641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -659,17 +654,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -681,12 +675,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -696,7 +692,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -723,7 +719,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -738,7 +734,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -747,7 +743,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -756,7 +752,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -771,7 +767,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -780,19 +776,19 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -801,6 +797,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1126,185 +1127,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:J6"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="1.1640625" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="6.83203125" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" customWidth="1"/>
-    <col min="9" max="9" width="6.83203125" customWidth="1"/>
-    <col min="10" max="10" width="27.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="1.140625" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" customWidth="1"/>
+    <col min="10" max="10" width="27.28515625" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-    </row>
-    <row r="2" spans="1:10" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="14"/>
-    </row>
-    <row r="3" spans="1:10" s="15" customFormat="1" ht="40" customHeight="1">
-      <c r="A3" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-    </row>
-    <row r="4" spans="1:10" ht="12">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="1:10" ht="13">
-      <c r="A5" s="52" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+    </row>
+    <row r="2" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" s="14" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+    </row>
+    <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24"/>
-    </row>
-    <row r="6" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A6" s="53"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="36"/>
-    </row>
-    <row r="7" spans="1:10" ht="12">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" ht="13">
-      <c r="A8" s="54" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="23"/>
+    </row>
+    <row r="6" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="52"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="35"/>
+    </row>
+    <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="24"/>
-    </row>
-    <row r="9" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A9" s="55"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="24"/>
-    </row>
-    <row r="10" spans="1:10" ht="12">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" ht="13">
-      <c r="A11" s="39" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23"/>
+    </row>
+    <row r="9" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="54"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="23"/>
+    </row>
+    <row r="10" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="41"/>
-    </row>
-    <row r="12" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A12" s="11">
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="40"/>
+    </row>
+    <row r="12" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
         <v>1</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="44"/>
-    </row>
-    <row r="13" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A13" s="11">
+      <c r="B12" s="16"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="43"/>
+    </row>
+    <row r="13" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
         <v>2</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="36"/>
-    </row>
-    <row r="14" spans="1:10" ht="13">
-      <c r="A14" s="13"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="35"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
       <c r="B14" s="6"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1315,97 +1320,97 @@
       <c r="I14" s="1"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:10" ht="30" customHeight="1">
-      <c r="A15" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-    </row>
-    <row r="16" spans="1:10" ht="7.5" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-    </row>
-    <row r="17" spans="1:10" ht="23" customHeight="1">
-      <c r="A17" s="48" t="s">
+    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+    </row>
+    <row r="16" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="30"/>
-    </row>
-    <row r="18" spans="1:10" ht="180" customHeight="1">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="27"/>
-    </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="1:10" s="16" customFormat="1" ht="23" customHeight="1">
-      <c r="A20" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="30"/>
-    </row>
-    <row r="21" spans="1:10" ht="180" customHeight="1">
-      <c r="A21" s="25"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="27"/>
-    </row>
-    <row r="22" spans="1:10" ht="23" customHeight="1">
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="29"/>
+    </row>
+    <row r="18" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="26"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="29"/>
+    </row>
+    <row r="21" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
+    </row>
+    <row r="22" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1417,23 +1422,23 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" ht="13">
-      <c r="A23" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="33"/>
-    </row>
-    <row r="24" spans="1:10" ht="13">
-      <c r="A24" s="8" t="s">
-        <v>4</v>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="32"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1443,14 +1448,14 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="12"/>
-    </row>
-    <row r="25" spans="1:10" ht="3.75" customHeight="1">
-      <c r="A25" s="11"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="1:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="10"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="1:10" ht="13">
-      <c r="A26" s="11"/>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
       <c r="C26" s="5">
         <v>1</v>
       </c>
@@ -1468,8 +1473,8 @@
       </c>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:10" ht="3.75" customHeight="1">
-      <c r="A27" s="13"/>
+    <row r="27" spans="1:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="12"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1480,35 +1485,35 @@
       <c r="I27" s="6"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" ht="10.5" customHeight="1">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" spans="1:10" ht="13">
-      <c r="A29" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="36"/>
-    </row>
-    <row r="30" spans="1:10" ht="13">
-      <c r="A30" s="21" t="s">
-        <v>14</v>
+    <row r="28" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="35"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1518,31 +1523,31 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="12"/>
-    </row>
-    <row r="31" spans="1:10" ht="3.75" customHeight="1">
-      <c r="A31" s="11"/>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="1:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="10"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:10" ht="13">
-      <c r="A32" s="11"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="38"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="37" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="10"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="37"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="37"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="38"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="3.75" customHeight="1">
-      <c r="A33" s="13"/>
+    </row>
+    <row r="33" spans="1:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="12"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -1553,44 +1558,70 @@
       <c r="I33" s="6"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" ht="10.5" customHeight="1">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-    </row>
-    <row r="35" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A35" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="24"/>
-    </row>
-    <row r="36" spans="1:10" ht="190" customHeight="1">
-      <c r="A36" s="25"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="27"/>
-    </row>
+    <row r="34" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="23"/>
+    </row>
+    <row r="36" spans="1:10" ht="189.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="24"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="26"/>
+    </row>
+    <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="20">
     <mergeCell ref="A1:J1"/>
@@ -1614,9 +1645,9 @@
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="G32:H32"/>
   </mergeCells>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>
